--- a/Data sets/Monthly balance of goods and services.xlsx
+++ b/Data sets/Monthly balance of goods and services.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbui1\group-project-group-23\Data sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbui1\Github-repository\Data sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEF2EAE-18B3-4F48-8A14-28B917D520CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD8F56-0986-4E89-880C-43731B2DC5C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,18 @@
     <definedName name="Date_Range">Data1!#REF!,Data1!$A$2:$A$591</definedName>
     <definedName name="Date_Range_Data">Data1!$A$2:$A$591</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -120,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -128,6 +139,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -471,13 +486,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B591"/>
+  <dimension ref="A1:B596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B566" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G579" sqref="G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7265625" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
@@ -5206,12 +5221,47 @@
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="5">
+      <c r="A591" s="7">
         <v>44044</v>
       </c>
-      <c r="B591" s="4">
-        <v>3909</v>
-      </c>
+      <c r="B591" s="6">
+        <v>3902</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="7">
+        <v>44075</v>
+      </c>
+      <c r="B592" s="6">
+        <v>4911</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="7">
+        <v>44105</v>
+      </c>
+      <c r="B593" s="6">
+        <v>4677</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="7">
+        <v>44136</v>
+      </c>
+      <c r="B594" s="6">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="7">
+        <v>44166</v>
+      </c>
+      <c r="B595" s="6">
+        <v>3832.3333333333335</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
